--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>272.48137435793785</v>
+        <v>272.48137430011917</v>
       </c>
       <c r="C2">
-        <v>265.13463020886002</v>
+        <v>265.1346301982735</v>
       </c>
       <c r="D2">
-        <v>195.53943760936863</v>
+        <v>195.53943757470608</v>
       </c>
       <c r="E2">
-        <v>268.72354725749159</v>
+        <v>268.72354721395158</v>
       </c>
       <c r="F2">
-        <v>201.75921479356902</v>
+        <v>201.75921478612514</v>
       </c>
       <c r="G2">
-        <v>273.86395264637468</v>
+        <v>273.86395262602656</v>
       </c>
       <c r="H2">
-        <v>236.7806039744747</v>
+        <v>236.78060393554097</v>
       </c>
       <c r="I2">
-        <v>300.73349866543469</v>
+        <v>300.73349863915519</v>
       </c>
       <c r="J2">
-        <v>239.0960460213297</v>
+        <v>239.09604600237191</v>
       </c>
       <c r="K2">
-        <v>250.0591190630079</v>
+        <v>250.05911904833459</v>
       </c>
       <c r="L2">
-        <v>230.38447510411194</v>
+        <v>230.38447505371002</v>
       </c>
       <c r="M2">
-        <v>296.94625382933515</v>
+        <v>296.9462537817588</v>
       </c>
       <c r="N2">
-        <v>286.48996282327136</v>
+        <v>286.48996276264177</v>
       </c>
       <c r="O2">
-        <v>260.12934021028877</v>
+        <v>260.12934017581102</v>
       </c>
       <c r="P2">
-        <v>278.35140959069275</v>
+        <v>278.35140958270921</v>
       </c>
       <c r="Q2">
-        <v>327.66121315455928</v>
+        <v>327.6612131411004</v>
       </c>
       <c r="R2">
-        <v>302.87295105342378</v>
+        <v>302.87295104901125</v>
       </c>
       <c r="S2">
-        <v>293.29201689572369</v>
+        <v>293.2920168732407</v>
       </c>
       <c r="T2">
-        <v>293.74082649952942</v>
+        <v>293.74082645384772</v>
       </c>
       <c r="U2">
-        <v>238.43710381018388</v>
+        <v>238.43710379014027</v>
       </c>
       <c r="V2">
-        <v>293.87084192704521</v>
+        <v>293.87084191870559</v>
       </c>
       <c r="W2">
-        <v>305.22769308620911</v>
+        <v>305.22769303710436</v>
       </c>
       <c r="X2">
-        <v>266.47970698140966</v>
+        <v>266.47970696228879</v>
       </c>
       <c r="Y2">
-        <v>252.2733474899795</v>
+        <v>252.27334746482737</v>
       </c>
       <c r="Z2">
-        <v>223.90125374933655</v>
+        <v>223.90125373136146</v>
       </c>
       <c r="AA2">
-        <v>294.47772757960871</v>
+        <v>294.47772750220508</v>
       </c>
       <c r="AB2">
-        <v>269.49526767971201</v>
+        <v>269.49526767120011</v>
       </c>
       <c r="AC2">
-        <v>221.0844004668084</v>
+        <v>221.0844004748472</v>
       </c>
       <c r="AD2">
-        <v>269.2477746440548</v>
+        <v>269.24777463719658</v>
       </c>
       <c r="AE2">
-        <v>235.56775972541271</v>
+        <v>235.56775970005921</v>
       </c>
       <c r="AF2">
-        <v>272.61781703988771</v>
+        <v>272.61781703281878</v>
       </c>
       <c r="AG2">
-        <v>234.29727413189312</v>
+        <v>234.29727409319167</v>
       </c>
       <c r="AH2">
-        <v>296.76387781702613</v>
+        <v>296.76387779880366</v>
       </c>
       <c r="AI2">
-        <v>239.46043659009592</v>
+        <v>239.46043656611405</v>
       </c>
       <c r="AJ2">
-        <v>244.18390849179951</v>
+        <v>244.18390843283737</v>
       </c>
       <c r="AK2">
-        <v>226.59952072844584</v>
+        <v>226.59952068718269</v>
       </c>
       <c r="AL2">
-        <v>294.44389336154217</v>
+        <v>294.44389332437356</v>
       </c>
       <c r="AM2">
-        <v>287.42060941179977</v>
+        <v>287.42060934156262</v>
       </c>
       <c r="AN2">
-        <v>255.41594225695502</v>
+        <v>255.41594220805601</v>
       </c>
       <c r="AO2">
-        <v>286.98316561921598</v>
+        <v>286.98316559026807</v>
       </c>
       <c r="AP2">
-        <v>335.98769943183908</v>
+        <v>335.98769942509779</v>
       </c>
       <c r="AQ2">
-        <v>306.94565080651347</v>
+        <v>306.94565078381743</v>
       </c>
       <c r="AR2">
-        <v>295.09230637130844</v>
+        <v>295.09230634975415</v>
       </c>
       <c r="AS2">
-        <v>295.62853300116444</v>
+        <v>295.62853298569604</v>
       </c>
       <c r="AT2">
-        <v>237.26415722952814</v>
+        <v>237.26415721119872</v>
       </c>
       <c r="AU2">
-        <v>297.08542597453243</v>
+        <v>297.08542597195475</v>
       </c>
       <c r="AV2">
-        <v>295.38913475582797</v>
+        <v>295.38913471957665</v>
       </c>
       <c r="AW2">
-        <v>263.60755441085382</v>
+        <v>263.60755438283991</v>
       </c>
       <c r="AX2">
-        <v>256.80937633057255</v>
+        <v>256.80937628834579</v>
       </c>
       <c r="AY2">
-        <v>245.98883180216535</v>
+        <v>245.98883178011994</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>291.27982414711556</v>
+        <v>291.27982414210095</v>
       </c>
       <c r="C3">
-        <v>260.83434126135131</v>
+        <v>260.83434122171138</v>
       </c>
       <c r="D3">
-        <v>218.55105818748146</v>
+        <v>218.5510581633722</v>
       </c>
       <c r="E3">
-        <v>259.53488548255814</v>
+        <v>259.53488546109054</v>
       </c>
       <c r="F3">
-        <v>240.8274380883081</v>
+        <v>240.82743807377531</v>
       </c>
       <c r="G3">
-        <v>267.70711502909654</v>
+        <v>267.70711499852501</v>
       </c>
       <c r="H3">
-        <v>228.78556448288668</v>
+        <v>228.78556443282187</v>
       </c>
       <c r="I3">
-        <v>310.73541248456775</v>
+        <v>310.73541247344974</v>
       </c>
       <c r="J3">
-        <v>239.36277172407819</v>
+        <v>239.36277169705721</v>
       </c>
       <c r="K3">
-        <v>252.02583375234923</v>
+        <v>252.0258337271182</v>
       </c>
       <c r="L3">
-        <v>268.74563389193952</v>
+        <v>268.74563384409652</v>
       </c>
       <c r="M3">
-        <v>297.72102137847315</v>
+        <v>297.72098314991069</v>
       </c>
       <c r="N3">
-        <v>292.65220384881405</v>
+        <v>292.65220380599385</v>
       </c>
       <c r="O3">
-        <v>249.29294586315353</v>
+        <v>249.29294584859031</v>
       </c>
       <c r="P3">
-        <v>288.60340129178093</v>
+        <v>288.60340124330202</v>
       </c>
       <c r="Q3">
-        <v>321.94606863449189</v>
+        <v>321.9460686213605</v>
       </c>
       <c r="R3">
-        <v>302.9305468296817</v>
+        <v>302.93054679703334</v>
       </c>
       <c r="S3">
-        <v>297.81683209942724</v>
+        <v>297.81683208504722</v>
       </c>
       <c r="T3">
-        <v>275.735577257258</v>
+        <v>275.73557722342429</v>
       </c>
       <c r="U3">
-        <v>217.93572358850253</v>
+        <v>217.93572356492348</v>
       </c>
       <c r="V3">
-        <v>302.50268025558603</v>
+        <v>302.50268024737318</v>
       </c>
       <c r="W3">
-        <v>263.81068300511822</v>
+        <v>263.81068296138579</v>
       </c>
       <c r="X3">
-        <v>268.31237470348083</v>
+        <v>268.31237469605071</v>
       </c>
       <c r="Y3">
-        <v>250.9699147509144</v>
+        <v>250.96991473207231</v>
       </c>
       <c r="Z3">
-        <v>259.38743564798614</v>
+        <v>259.38743563474469</v>
       </c>
       <c r="AA3">
-        <v>301.76410458407065</v>
+        <v>301.76410454474137</v>
       </c>
       <c r="AB3">
-        <v>254.2488648510672</v>
+        <v>254.24886484480965</v>
       </c>
       <c r="AC3">
-        <v>223.54621374371922</v>
+        <v>223.54621371896479</v>
       </c>
       <c r="AD3">
-        <v>257.33804438282192</v>
+        <v>257.33804433969101</v>
       </c>
       <c r="AE3">
-        <v>256.69293132806411</v>
+        <v>256.69293132238232</v>
       </c>
       <c r="AF3">
-        <v>266.24262638553415</v>
+        <v>266.24262636452249</v>
       </c>
       <c r="AG3">
-        <v>234.67669646016543</v>
+        <v>234.67669641977091</v>
       </c>
       <c r="AH3">
-        <v>315.30376778146132</v>
+        <v>315.30376779065199</v>
       </c>
       <c r="AI3">
-        <v>241.93808883110782</v>
+        <v>241.93808879706322</v>
       </c>
       <c r="AJ3">
-        <v>257.46586526464409</v>
+        <v>257.4658651926735</v>
       </c>
       <c r="AK3">
-        <v>245.8810933427099</v>
+        <v>245.88109329870235</v>
       </c>
       <c r="AL3">
-        <v>308.28928828960863</v>
+        <v>308.28928825650064</v>
       </c>
       <c r="AM3">
-        <v>305.96508191567727</v>
+        <v>305.96508186043286</v>
       </c>
       <c r="AN3">
-        <v>250.41660851656519</v>
+        <v>250.41660847738984</v>
       </c>
       <c r="AO3">
-        <v>290.79893736028743</v>
+        <v>290.79893733104154</v>
       </c>
       <c r="AP3">
-        <v>320.33203006462821</v>
+        <v>320.332030036118</v>
       </c>
       <c r="AQ3">
-        <v>308.00264724683575</v>
+        <v>308.0026472115922</v>
       </c>
       <c r="AR3">
-        <v>297.3833701988691</v>
+        <v>297.38337018332112</v>
       </c>
       <c r="AS3">
-        <v>277.56726482925126</v>
+        <v>277.5672648063873</v>
       </c>
       <c r="AT3">
-        <v>222.46614499024943</v>
+        <v>222.46614496750385</v>
       </c>
       <c r="AU3">
-        <v>302.12751551814591</v>
+        <v>302.12751548420641</v>
       </c>
       <c r="AV3">
-        <v>267.19751473771908</v>
+        <v>267.19751462976018</v>
       </c>
       <c r="AW3">
-        <v>269.31257704897223</v>
+        <v>269.31257696934597</v>
       </c>
       <c r="AX3">
-        <v>251.7984613109175</v>
+        <v>251.79846128173574</v>
       </c>
       <c r="AY3">
-        <v>262.98833086105117</v>
+        <v>262.98833082957697</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>272.48137430011917</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>265.1346301982735</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>195.53943757470608</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>268.72354721395158</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>201.75921478612514</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>273.86395262602656</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>236.78060393554097</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>300.73349863915519</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>239.09604600237191</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>250.05911904833459</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>230.38447505371002</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>296.9462537817588</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>286.48996276264177</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>260.12934017581102</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>278.35140958270921</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>327.6612131411004</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>302.87295104901125</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>293.2920168732407</v>
@@ -588,55 +477,55 @@
         <v>223.90125373136146</v>
       </c>
       <c r="AA2">
-        <v>294.47772750220508</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>269.49526767120011</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>221.0844004748472</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>269.24777463719658</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>235.56775970005921</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>272.61781703281878</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>234.29727409319167</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>296.76387779880366</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>239.46043656611405</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>244.18390843283737</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>226.59952068718269</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>294.44389332437356</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>287.42060934156262</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>255.41594220805601</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>286.98316559026807</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>335.98769942509779</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>306.94565078381743</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>295.09230634975415</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>291.27982414210095</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>260.83434122171138</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>218.5510581633722</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>259.53488546109054</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>240.82743807377531</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>267.70711499852501</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>228.78556443282187</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>310.73541247344974</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>239.36277169705721</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>252.0258337271182</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>268.74563384409652</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>297.72098314991069</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>292.65220380599385</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>249.29294584859031</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>288.60340124330202</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>321.9460686213605</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>302.93054679703334</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>297.81683208504722</v>
@@ -743,55 +629,55 @@
         <v>259.38743563474469</v>
       </c>
       <c r="AA3">
-        <v>301.76410454474137</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>254.24886484480965</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>223.54621371896479</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>257.33804433969101</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>256.69293132238232</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>266.24262636452249</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>234.67669641977091</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>315.30376779065199</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>241.93808879706322</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>257.4658651926735</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>245.88109329870235</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>308.28928825650064</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>305.96508186043286</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>250.41660847738984</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>290.79893733104154</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>320.332030036118</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>308.0026472115922</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>297.38337018332112</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>272.48137435793785</v>
+        <v>260.12934017581102</v>
       </c>
       <c r="C2">
-        <v>265.13463020886002</v>
+        <v>302.87295104901125</v>
       </c>
       <c r="D2">
-        <v>195.53943760936863</v>
+        <v>255.41594220805601</v>
       </c>
       <c r="E2">
-        <v>268.72354725749159</v>
+        <v>306.94565078381743</v>
       </c>
       <c r="F2">
         <v>201.75921479356902</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>291.27982414711556</v>
+        <v>249.29294584859031</v>
       </c>
       <c r="C3">
-        <v>260.83434126135131</v>
+        <v>302.93054679703334</v>
       </c>
       <c r="D3">
-        <v>218.55105818748146</v>
+        <v>250.41660847738984</v>
       </c>
       <c r="E3">
-        <v>259.53488548255814</v>
+        <v>307.96892918008837</v>
       </c>
       <c r="F3">
         <v>240.8274380883081</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>272.48137435793785</v>
+        <v>286.48996276264177</v>
       </c>
       <c r="C2">
-        <v>265.13463020886002</v>
+        <v>260.12934017581102</v>
       </c>
       <c r="D2">
-        <v>195.53943760936863</v>
+        <v>287.42060934156262</v>
       </c>
       <c r="E2">
-        <v>268.72354725749159</v>
+        <v>255.41594220805601</v>
       </c>
       <c r="F2">
         <v>201.75921479356902</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>291.27982414711556</v>
+        <v>292.65220380599385</v>
       </c>
       <c r="C3">
-        <v>260.83434126135131</v>
+        <v>249.29294584859031</v>
       </c>
       <c r="D3">
-        <v>218.55105818748146</v>
+        <v>305.96508186043286</v>
       </c>
       <c r="E3">
-        <v>259.53488548255814</v>
+        <v>250.41660847738984</v>
       </c>
       <c r="F3">
         <v>240.8274380883081</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>272.48137430011917</v>
+      </c>
+      <c r="C2">
+        <v>265.1346301982735</v>
+      </c>
+      <c r="D2">
+        <v>195.53943757470608</v>
+      </c>
+      <c r="E2">
+        <v>268.72354721395158</v>
+      </c>
+      <c r="F2">
+        <v>201.75921478612514</v>
+      </c>
+      <c r="G2">
+        <v>273.86395262602656</v>
+      </c>
+      <c r="H2">
+        <v>236.78060393554097</v>
+      </c>
+      <c r="I2">
+        <v>300.73349863915519</v>
+      </c>
+      <c r="J2">
+        <v>239.09604600237191</v>
+      </c>
+      <c r="K2">
+        <v>250.05911904833459</v>
+      </c>
+      <c r="L2">
+        <v>230.38447505371002</v>
+      </c>
+      <c r="M2">
+        <v>296.9462537817588</v>
+      </c>
+      <c r="N2">
         <v>286.48996276264177</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>260.12934017581102</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>278.35140958270921</v>
+      </c>
+      <c r="Q2">
+        <v>327.6612131411004</v>
+      </c>
+      <c r="R2">
+        <v>302.87295104901125</v>
+      </c>
+      <c r="S2">
+        <v>293.2920168732407</v>
+      </c>
+      <c r="T2">
+        <v>293.74082645384772</v>
+      </c>
+      <c r="U2">
+        <v>238.43710379014027</v>
+      </c>
+      <c r="V2">
+        <v>293.87084191870559</v>
+      </c>
+      <c r="W2">
+        <v>305.22769303710436</v>
+      </c>
+      <c r="X2">
+        <v>266.47970696228879</v>
+      </c>
+      <c r="Y2">
+        <v>252.27334746482737</v>
+      </c>
+      <c r="Z2">
+        <v>223.90125373136146</v>
+      </c>
+      <c r="AA2">
+        <v>294.47772750220508</v>
+      </c>
+      <c r="AB2">
+        <v>269.49526767120011</v>
+      </c>
+      <c r="AC2">
+        <v>221.0844004748472</v>
+      </c>
+      <c r="AD2">
+        <v>269.24777463719658</v>
+      </c>
+      <c r="AE2">
+        <v>235.56775970005921</v>
+      </c>
+      <c r="AF2">
+        <v>272.61781703281878</v>
+      </c>
+      <c r="AG2">
+        <v>234.29727409319167</v>
+      </c>
+      <c r="AH2">
+        <v>296.76387779880366</v>
+      </c>
+      <c r="AI2">
+        <v>239.46043656611405</v>
+      </c>
+      <c r="AJ2">
+        <v>244.18390843283737</v>
+      </c>
+      <c r="AK2">
+        <v>226.59952068718269</v>
+      </c>
+      <c r="AL2">
+        <v>294.44389332437356</v>
+      </c>
+      <c r="AM2">
         <v>287.42060934156262</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>255.41594220805601</v>
       </c>
-      <c r="F2">
-        <v>201.75921479356902</v>
-      </c>
-      <c r="G2">
-        <v>273.86395264637468</v>
-      </c>
-      <c r="H2">
-        <v>236.7806039744747</v>
-      </c>
-      <c r="I2">
-        <v>300.73349866543469</v>
-      </c>
-      <c r="J2">
-        <v>239.0960460213297</v>
-      </c>
-      <c r="K2">
-        <v>250.0591190630079</v>
-      </c>
-      <c r="L2">
-        <v>230.38447510411194</v>
-      </c>
-      <c r="M2">
-        <v>296.94625382933515</v>
-      </c>
-      <c r="N2">
-        <v>286.48996282327136</v>
-      </c>
-      <c r="O2">
-        <v>260.12934021028877</v>
-      </c>
-      <c r="P2">
-        <v>278.35140959069275</v>
-      </c>
-      <c r="Q2">
-        <v>327.66121315455928</v>
-      </c>
-      <c r="R2">
-        <v>302.87295105342378</v>
-      </c>
-      <c r="S2">
-        <v>293.29201689572369</v>
-      </c>
-      <c r="T2">
-        <v>293.74082649952942</v>
-      </c>
-      <c r="U2">
-        <v>238.43710381018388</v>
-      </c>
-      <c r="V2">
-        <v>293.87084192704521</v>
-      </c>
-      <c r="W2">
-        <v>305.22769308620911</v>
-      </c>
-      <c r="X2">
-        <v>266.47970698140966</v>
-      </c>
-      <c r="Y2">
-        <v>252.2733474899795</v>
-      </c>
-      <c r="Z2">
-        <v>223.90125374933655</v>
-      </c>
-      <c r="AA2">
-        <v>294.47772757960871</v>
-      </c>
-      <c r="AB2">
-        <v>269.49526767971201</v>
-      </c>
-      <c r="AC2">
-        <v>221.0844004668084</v>
-      </c>
-      <c r="AD2">
-        <v>269.2477746440548</v>
-      </c>
-      <c r="AE2">
-        <v>235.56775972541271</v>
-      </c>
-      <c r="AF2">
-        <v>272.61781703988771</v>
-      </c>
-      <c r="AG2">
-        <v>234.29727413189312</v>
-      </c>
-      <c r="AH2">
-        <v>296.76387781702613</v>
-      </c>
-      <c r="AI2">
-        <v>239.46043659009592</v>
-      </c>
-      <c r="AJ2">
-        <v>244.18390849179951</v>
-      </c>
-      <c r="AK2">
-        <v>226.59952072844584</v>
-      </c>
-      <c r="AL2">
-        <v>294.44389336154217</v>
-      </c>
-      <c r="AM2">
-        <v>287.42060941179977</v>
-      </c>
-      <c r="AN2">
-        <v>255.41594225695502</v>
-      </c>
       <c r="AO2">
-        <v>286.98316561921598</v>
+        <v>286.98316559026807</v>
       </c>
       <c r="AP2">
-        <v>335.98769943183908</v>
+        <v>335.98769942509779</v>
       </c>
       <c r="AQ2">
-        <v>306.94565080651347</v>
+        <v>306.94565078381743</v>
       </c>
       <c r="AR2">
-        <v>295.09230637130844</v>
+        <v>295.09230634975415</v>
       </c>
       <c r="AS2">
-        <v>295.62853300116444</v>
+        <v>295.62853298569604</v>
       </c>
       <c r="AT2">
-        <v>237.26415722952814</v>
+        <v>237.26415721119872</v>
       </c>
       <c r="AU2">
-        <v>297.08542597453243</v>
+        <v>297.08542597195475</v>
       </c>
       <c r="AV2">
-        <v>295.38913475582797</v>
+        <v>295.38913471957665</v>
       </c>
       <c r="AW2">
-        <v>263.60755441085382</v>
+        <v>263.60755438283991</v>
       </c>
       <c r="AX2">
-        <v>256.80937633057255</v>
+        <v>256.80937628834579</v>
       </c>
       <c r="AY2">
-        <v>245.98883180216535</v>
+        <v>245.98883178011994</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>291.27982414210095</v>
+      </c>
+      <c r="C3">
+        <v>260.83434122171138</v>
+      </c>
+      <c r="D3">
+        <v>218.5510581633722</v>
+      </c>
+      <c r="E3">
+        <v>259.53488546109054</v>
+      </c>
+      <c r="F3">
+        <v>240.82743807377531</v>
+      </c>
+      <c r="G3">
+        <v>267.70711499852501</v>
+      </c>
+      <c r="H3">
+        <v>228.78556443282187</v>
+      </c>
+      <c r="I3">
+        <v>310.73541247344974</v>
+      </c>
+      <c r="J3">
+        <v>239.36277169705721</v>
+      </c>
+      <c r="K3">
+        <v>252.0258337271182</v>
+      </c>
+      <c r="L3">
+        <v>268.74563384409652</v>
+      </c>
+      <c r="M3">
+        <v>297.72098314991069</v>
+      </c>
+      <c r="N3">
         <v>292.65220380599385</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>249.29294584859031</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>288.60340124330202</v>
+      </c>
+      <c r="Q3">
+        <v>321.9460686213605</v>
+      </c>
+      <c r="R3">
+        <v>302.93054679703334</v>
+      </c>
+      <c r="S3">
+        <v>297.81683208504722</v>
+      </c>
+      <c r="T3">
+        <v>275.73557722342429</v>
+      </c>
+      <c r="U3">
+        <v>217.93572356492348</v>
+      </c>
+      <c r="V3">
+        <v>302.50268024737318</v>
+      </c>
+      <c r="W3">
+        <v>263.81068296138579</v>
+      </c>
+      <c r="X3">
+        <v>268.31237469605071</v>
+      </c>
+      <c r="Y3">
+        <v>250.96991473207231</v>
+      </c>
+      <c r="Z3">
+        <v>259.38743563474469</v>
+      </c>
+      <c r="AA3">
+        <v>301.76410454474137</v>
+      </c>
+      <c r="AB3">
+        <v>254.24886484480965</v>
+      </c>
+      <c r="AC3">
+        <v>223.54621371896479</v>
+      </c>
+      <c r="AD3">
+        <v>257.33804433969101</v>
+      </c>
+      <c r="AE3">
+        <v>256.69293132238232</v>
+      </c>
+      <c r="AF3">
+        <v>266.24262636452249</v>
+      </c>
+      <c r="AG3">
+        <v>234.67669641977091</v>
+      </c>
+      <c r="AH3">
+        <v>315.28757470878912</v>
+      </c>
+      <c r="AI3">
+        <v>241.93808879706322</v>
+      </c>
+      <c r="AJ3">
+        <v>257.4658651926735</v>
+      </c>
+      <c r="AK3">
+        <v>245.88109329870235</v>
+      </c>
+      <c r="AL3">
+        <v>308.28928825650064</v>
+      </c>
+      <c r="AM3">
         <v>305.96508186043286</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>250.41660847738984</v>
       </c>
-      <c r="F3">
-        <v>240.8274380883081</v>
-      </c>
-      <c r="G3">
-        <v>267.70711502909654</v>
-      </c>
-      <c r="H3">
-        <v>228.78556448288668</v>
-      </c>
-      <c r="I3">
-        <v>310.73541248456775</v>
-      </c>
-      <c r="J3">
-        <v>239.36277172407819</v>
-      </c>
-      <c r="K3">
-        <v>252.02583375234923</v>
-      </c>
-      <c r="L3">
-        <v>268.74563389193952</v>
-      </c>
-      <c r="M3">
-        <v>297.72102137847315</v>
-      </c>
-      <c r="N3">
-        <v>292.65220384881405</v>
-      </c>
-      <c r="O3">
-        <v>249.29294586315353</v>
-      </c>
-      <c r="P3">
-        <v>288.60340129178093</v>
-      </c>
-      <c r="Q3">
-        <v>321.94606863449189</v>
-      </c>
-      <c r="R3">
-        <v>302.9305468296817</v>
-      </c>
-      <c r="S3">
-        <v>297.81683209942724</v>
-      </c>
-      <c r="T3">
-        <v>275.735577257258</v>
-      </c>
-      <c r="U3">
-        <v>217.93572358850253</v>
-      </c>
-      <c r="V3">
-        <v>302.50268025558603</v>
-      </c>
-      <c r="W3">
-        <v>263.81068300511822</v>
-      </c>
-      <c r="X3">
-        <v>268.31237470348083</v>
-      </c>
-      <c r="Y3">
-        <v>250.9699147509144</v>
-      </c>
-      <c r="Z3">
-        <v>259.38743564798614</v>
-      </c>
-      <c r="AA3">
-        <v>301.76410458407065</v>
-      </c>
-      <c r="AB3">
-        <v>254.2488648510672</v>
-      </c>
-      <c r="AC3">
-        <v>223.54621374371922</v>
-      </c>
-      <c r="AD3">
-        <v>257.33804438282192</v>
-      </c>
-      <c r="AE3">
-        <v>256.69293132806411</v>
-      </c>
-      <c r="AF3">
-        <v>266.24262638553415</v>
-      </c>
-      <c r="AG3">
-        <v>234.67669646016543</v>
-      </c>
-      <c r="AH3">
-        <v>315.28757472803966</v>
-      </c>
-      <c r="AI3">
-        <v>241.93808883110782</v>
-      </c>
-      <c r="AJ3">
-        <v>257.46586526464409</v>
-      </c>
-      <c r="AK3">
-        <v>245.8810933427099</v>
-      </c>
-      <c r="AL3">
-        <v>308.28928828960863</v>
-      </c>
-      <c r="AM3">
-        <v>305.96508191567727</v>
-      </c>
-      <c r="AN3">
-        <v>250.41660851656519</v>
-      </c>
       <c r="AO3">
-        <v>290.79893736028743</v>
+        <v>290.79893733104154</v>
       </c>
       <c r="AP3">
-        <v>320.33203006462821</v>
+        <v>320.332030036118</v>
       </c>
       <c r="AQ3">
-        <v>307.96892921611391</v>
+        <v>307.96892918008837</v>
       </c>
       <c r="AR3">
-        <v>297.3833701988691</v>
+        <v>297.38337018332112</v>
       </c>
       <c r="AS3">
-        <v>277.56726482925126</v>
+        <v>277.5672648063873</v>
       </c>
       <c r="AT3">
-        <v>222.46614499024943</v>
+        <v>222.46614496750385</v>
       </c>
       <c r="AU3">
-        <v>302.12751551814591</v>
+        <v>302.12751548420641</v>
       </c>
       <c r="AV3">
-        <v>267.19751473771908</v>
+        <v>267.19751462976018</v>
       </c>
       <c r="AW3">
-        <v>269.31257704897223</v>
+        <v>269.31257696934597</v>
       </c>
       <c r="AX3">
-        <v>251.7984613109175</v>
+        <v>251.79846128173574</v>
       </c>
       <c r="AY3">
-        <v>262.98833086105117</v>
+        <v>262.98833082957697</v>
       </c>
     </row>
   </sheetData>
